--- a/checkwork/2月份考勤汇总表.xlsx
+++ b/checkwork/2月份考勤汇总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\checkwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C0F112-FFC3-4655-BFB3-57024C2A5B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC085FD-46FC-42DA-A33D-D146F35B8B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="306">
   <si>
     <t>2021 年 11 月 份 考 勤 汇 总 表</t>
   </si>
@@ -954,12 +954,6 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>残联:100.00%、发政委:100.00%、工信委:100.00%、农机局:100.00%、应急管理局:100.00%。</t>
-  </si>
-  <si>
-    <t>文广新局:90.62%、婚检优生:92.08%、财政局:93.75%、司法局:93.75%。</t>
-  </si>
-  <si>
     <t>水利局:0.00%、民政局:45.54%、环保局:59.38%、公安出入境:60.42%、医保中心:60.42%、卫健局:65.97%、教体局:66.41%、环城户籍:68.75%、</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -968,7 +962,23 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>自然资源局:81.25%、城管局:87.50%、林业局:89.58%。</t>
+    <t>总计：</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>出勤率：</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>残联:100.00%、发政委:100.00%、工信委:100.00%、农机局:100.00%、应急管理局:100.00%。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>文广新局:90.62%、婚检优生:92.08%、财政局:93.75%、司法局:93.75%。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>水利局:0.00%、民政局:45.54%、环保局:59.38%、公安出入境:60.42%、医保中心:60.42%、卫健局:65.97%、教体局:66.41%、环城户籍:68.75%、交通局运管局:69.17%、住建局:69.89%、农业局:77.08%、税务局:77.08%、不动产:77.21%、市场监管局:80.36%、人社局:80.88%、商务局:81.25%、自然资源局:81.25%、城管局:87.50%、林业局:89.58%。</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -12033,8 +12043,8 @@
   <dimension ref="A1:AA270"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <pane ySplit="2" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S170" sqref="S170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
@@ -12949,14 +12959,14 @@
       <c r="U20" s="46"/>
       <c r="V20" s="46"/>
       <c r="W20" s="46" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X20" s="46"/>
       <c r="Y20" s="46">
         <v>62</v>
       </c>
       <c r="Z20" s="46" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA20" s="62">
         <v>0.7720588235294118</v>
@@ -13022,14 +13032,14 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="11">
         <v>1</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA22" s="44">
         <v>0.9375</v>
@@ -13093,14 +13103,14 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="11">
         <v>0</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA24" s="44">
         <v>1</v>
@@ -13187,14 +13197,14 @@
       <c r="L27" s="11"/>
       <c r="R27" s="11"/>
       <c r="W27" s="11" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X27" s="11"/>
       <c r="Y27" s="11">
         <v>4</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA27" s="44">
         <v>0.875</v>
@@ -13258,14 +13268,14 @@
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X29" s="7"/>
       <c r="Y29" s="11">
         <v>0</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA29" s="44">
         <v>1</v>
@@ -13329,14 +13339,14 @@
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X31" s="7"/>
       <c r="Y31" s="11">
         <v>0</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA31" s="44">
         <v>1</v>
@@ -13506,14 +13516,14 @@
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="11">
         <v>19</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA35" s="44">
         <v>0.60416666666666663</v>
@@ -13731,14 +13741,14 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="11">
         <v>26</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA40" s="44">
         <v>0.59375</v>
@@ -13900,14 +13910,14 @@
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X44" s="7"/>
       <c r="Y44" s="11">
         <v>15</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA44" s="44">
         <v>0.6875</v>
@@ -14485,14 +14495,14 @@
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X60" s="7"/>
       <c r="Y60" s="11">
         <v>19</v>
       </c>
       <c r="Z60" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA60" s="44">
         <v>0.92083333333333328</v>
@@ -15180,14 +15190,14 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X76" s="7"/>
       <c r="Y76" s="11">
         <v>74</v>
       </c>
       <c r="Z76" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA76" s="44">
         <v>0.69166666666666665</v>
@@ -15575,14 +15585,14 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X85" s="7"/>
       <c r="Y85" s="11">
         <v>43</v>
       </c>
       <c r="Z85" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA85" s="44">
         <v>0.6640625</v>
@@ -15724,14 +15734,14 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
       <c r="W89" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X89" s="7"/>
       <c r="Y89" s="11">
         <v>5</v>
       </c>
       <c r="Z89" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA89" s="44">
         <v>0.89583333333333337</v>
@@ -16481,14 +16491,14 @@
       <c r="U104" s="7"/>
       <c r="V104" s="7"/>
       <c r="W104" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X104" s="7"/>
       <c r="Y104" s="11">
         <v>122</v>
       </c>
       <c r="Z104" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA104" s="44">
         <v>0.45535714285714285</v>
@@ -16552,14 +16562,14 @@
       <c r="U106" s="7"/>
       <c r="V106" s="7"/>
       <c r="W106" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X106" s="7"/>
       <c r="Y106" s="11">
         <v>0</v>
       </c>
       <c r="Z106" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA106" s="44">
         <v>1</v>
@@ -16837,14 +16847,14 @@
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
       <c r="W113" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X113" s="7"/>
       <c r="Y113" s="11">
         <v>22</v>
       </c>
       <c r="Z113" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA113" s="44">
         <v>0.77083333333333337</v>
@@ -18920,14 +18930,14 @@
       <c r="U165" s="7"/>
       <c r="V165" s="7"/>
       <c r="W165" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X165" s="7"/>
       <c r="Y165" s="11">
         <v>156</v>
       </c>
       <c r="Z165" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA165" s="44">
         <v>0.80882352941176472</v>
@@ -18997,14 +19007,14 @@
       <c r="U167" s="7"/>
       <c r="V167" s="7"/>
       <c r="W167" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X167" s="7"/>
       <c r="Y167" s="11">
         <v>3</v>
       </c>
       <c r="Z167" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA167" s="44">
         <v>0.8125</v>
@@ -19598,14 +19608,14 @@
       <c r="U182" s="7"/>
       <c r="V182" s="7"/>
       <c r="W182" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X182" s="7"/>
       <c r="Y182" s="11">
         <v>44</v>
       </c>
       <c r="Z182" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA182" s="44">
         <v>0.8035714285714286</v>
@@ -19701,14 +19711,14 @@
       <c r="U184" s="7"/>
       <c r="V184" s="7"/>
       <c r="W184" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X184" s="7"/>
       <c r="Y184" s="11">
         <v>16</v>
       </c>
       <c r="Z184" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA184" s="44">
         <v>0</v>
@@ -20730,14 +20740,14 @@
       <c r="U209" s="7"/>
       <c r="V209" s="7"/>
       <c r="W209" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X209" s="7"/>
       <c r="Y209" s="11">
         <v>88</v>
       </c>
       <c r="Z209" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA209" s="44">
         <v>0.77083333333333337</v>
@@ -20839,14 +20849,14 @@
       <c r="U212" s="7"/>
       <c r="V212" s="7"/>
       <c r="W212" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X212" s="7"/>
       <c r="Y212" s="11">
         <v>2</v>
       </c>
       <c r="Z212" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA212" s="44">
         <v>0.9375</v>
@@ -21280,14 +21290,14 @@
       <c r="U222" s="7"/>
       <c r="V222" s="7"/>
       <c r="W222" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X222" s="7"/>
       <c r="Y222" s="11">
         <v>49</v>
       </c>
       <c r="Z222" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA222" s="44">
         <v>0.65972222222222221</v>
@@ -21391,14 +21401,14 @@
       <c r="U225" s="7"/>
       <c r="V225" s="7"/>
       <c r="W225" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X225" s="7"/>
       <c r="Y225" s="11">
         <v>3</v>
       </c>
       <c r="Z225" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA225" s="44">
         <v>0.90625</v>
@@ -22268,14 +22278,14 @@
       <c r="U244" s="7"/>
       <c r="V244" s="7"/>
       <c r="W244" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X244" s="7"/>
       <c r="Y244" s="11">
         <v>114</v>
       </c>
       <c r="Z244" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA244" s="44">
         <v>0.60416666666666663</v>
@@ -22339,14 +22349,14 @@
       <c r="U246" s="7"/>
       <c r="V246" s="7"/>
       <c r="W246" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X246" s="7"/>
       <c r="Y246" s="11">
         <v>0</v>
       </c>
       <c r="Z246" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA246" s="44">
         <v>1</v>
@@ -22856,14 +22866,14 @@
       <c r="U258" s="7"/>
       <c r="V258" s="7"/>
       <c r="W258" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X258" s="7"/>
       <c r="Y258" s="11">
         <v>53</v>
       </c>
       <c r="Z258" s="11" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA258" s="44">
         <v>0.69886363636363635</v>
@@ -22991,15 +23001,29 @@
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.15">
       <c r="W262" s="11" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Y262" s="11">
         <v>9</v>
       </c>
       <c r="Z262" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA262" s="44">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="W263" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y263" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z263" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AA262" s="44">
+      <c r="AA263" s="11">
         <v>0.8125</v>
       </c>
     </row>
@@ -23030,7 +23054,9 @@
       <c r="V264" s="22"/>
       <c r="W264" s="22"/>
       <c r="X264" s="22"/>
-      <c r="Y264" s="22"/>
+      <c r="Y264" s="22">
+        <v>0</v>
+      </c>
       <c r="Z264" s="22"/>
       <c r="AA264" s="22"/>
     </row>
@@ -23039,7 +23065,7 @@
         <v>275</v>
       </c>
       <c r="B265" s="53" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C265" s="53"/>
       <c r="D265" s="53"/>
@@ -23070,7 +23096,7 @@
     <row r="266" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A266" s="54"/>
       <c r="B266" s="53" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C266" s="53"/>
       <c r="D266" s="53"/>
@@ -23101,7 +23127,7 @@
     <row r="267" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A267" s="54"/>
       <c r="B267" s="53" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C267" s="53"/>
       <c r="D267" s="53"/>
@@ -23134,7 +23160,7 @@
         <v>277</v>
       </c>
       <c r="B268" s="53" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C268" s="53"/>
       <c r="D268" s="53"/>
@@ -23196,7 +23222,7 @@
         <v>280</v>
       </c>
       <c r="B270" s="53" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C270" s="53"/>
       <c r="D270" s="53"/>
